--- a/sf-house-excel/src/test/resources/ExcelSessionExport.xlsx
+++ b/sf-house-excel/src/test/resources/ExcelSessionExport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t/>
   </si>
@@ -33,22 +33,25 @@
     <t>日期类型</t>
   </si>
   <si>
+    <t>列表</t>
+  </si>
+  <si>
     <t>我是测试数据1</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2018-08-16 00:11:55</t>
-  </si>
-  <si>
-    <t>2018-08-16</t>
+    <t>2018-10-01 14:15:49</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t>我是测试数据2</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -56,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode=" #,##0.00 "/>
+    <numFmt numFmtId="164" formatCode=" #,##0.00 "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -75,7 +78,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -83,101 +86,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -185,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -197,6 +233,7 @@
     <col min="4" max="4" width="19.53125" customWidth="true"/>
     <col min="5" max="5" width="19.53125" customWidth="true"/>
     <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="7" max="7" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.0" customHeight="true">
@@ -218,49 +255,58 @@
       <c r="F1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="G1"/>
+      <c r="G1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="H1"/>
     </row>
     <row r="2" ht="35.0" customHeight="true">
-      <c r="A2" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="8">
+      <c r="A2" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="B2" t="n" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="11">
+        <v>22.22</v>
+      </c>
+      <c r="E2" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="D2" t="n" s="10">
+      <c r="F2" t="s" s="13">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" ht="35.0" customHeight="true">
+      <c r="A3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n" s="16">
+        <v>12.0</v>
+      </c>
+      <c r="C3" t="n" s="17">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="18">
         <v>22.22</v>
       </c>
-      <c r="E2" t="s" s="11">
+      <c r="E3" t="s" s="19">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="20">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" ht="35.0" customHeight="true">
-      <c r="A3" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="15">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n" s="16">
-        <v>22.22</v>
-      </c>
-      <c r="E3" t="s" s="17">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s" s="18">
-        <v>10</v>
-      </c>
-      <c r="G3"/>
+      <c r="G3" t="s" s="21">
+        <v>12</v>
+      </c>
+      <c r="H3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -269,7 +315,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -281,6 +327,7 @@
     <col min="4" max="4" width="19.53125" customWidth="true"/>
     <col min="5" max="5" width="19.53125" customWidth="true"/>
     <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="7" max="7" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.0" customHeight="true">
@@ -291,6 +338,7 @@
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
+      <c r="H1"/>
     </row>
     <row r="2" ht="35.0" customHeight="true">
       <c r="A2"/>
@@ -300,6 +348,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3" ht="35.0" customHeight="true">
       <c r="A3"/>
@@ -309,6 +358,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4" ht="35.0" customHeight="true">
       <c r="A4"/>
@@ -318,48 +368,55 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5" ht="35.0" customHeight="true">
-      <c r="A5" t="s" s="19">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s" s="20">
+      <c r="A5" t="s" s="22">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="21">
+      <c r="B5" t="n" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="C5" t="n" s="24">
+        <v>22.0</v>
+      </c>
+      <c r="D5" t="n" s="25">
+        <v>22.22</v>
+      </c>
+      <c r="E5" t="s" s="26">
         <v>8</v>
       </c>
-      <c r="D5" t="n" s="22">
+      <c r="F5" t="s" s="27">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s" s="28">
+        <v>10</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" ht="35.0" customHeight="true">
+      <c r="A6" t="s" s="29">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n" s="30">
+        <v>12.0</v>
+      </c>
+      <c r="C6" t="n" s="31">
+        <v>22.0</v>
+      </c>
+      <c r="D6" t="n" s="32">
         <v>22.22</v>
       </c>
-      <c r="E5" t="s" s="23">
+      <c r="E6" t="s" s="33">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="F5" t="s" s="24">
-        <v>10</v>
-      </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" ht="35.0" customHeight="true">
-      <c r="A6" t="s" s="25">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s" s="26">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="27">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n" s="28">
-        <v>22.22</v>
-      </c>
-      <c r="E6" t="s" s="29">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s" s="30">
-        <v>10</v>
-      </c>
-      <c r="G6"/>
+      <c r="G6" t="s" s="35">
+        <v>12</v>
+      </c>
+      <c r="H6"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
